--- a/海信卡夹/卡片合并(海信)adjust2.xlsx
+++ b/海信卡夹/卡片合并(海信)adjust2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="机票" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -844,17 +847,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1199,85 +1199,85 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
@@ -1289,7 +1289,7 @@
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
@@ -1311,7 +1311,7 @@
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
@@ -1321,7 +1321,7 @@
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
@@ -1331,7 +1331,7 @@
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
@@ -1339,7 +1339,7 @@
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
@@ -1349,7 +1349,7 @@
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
@@ -1357,7 +1357,7 @@
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
@@ -1367,7 +1367,7 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
@@ -1379,7 +1379,7 @@
       <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
@@ -1401,7 +1401,7 @@
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
@@ -1411,7 +1411,7 @@
       <c r="C23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
@@ -1421,7 +1421,7 @@
       <c r="C24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
@@ -1429,7 +1429,7 @@
       <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
@@ -1439,7 +1439,7 @@
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
@@ -1447,7 +1447,7 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
@@ -1457,7 +1457,7 @@
       <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
@@ -1469,7 +1469,7 @@
       <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1481,9 +1481,9 @@
       <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="5" t="s">
         <v>3</v>
@@ -1491,7 +1491,7 @@
       <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="66" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
@@ -1501,7 +1501,7 @@
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
@@ -1511,7 +1511,7 @@
       <c r="C33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
@@ -1519,7 +1519,7 @@
       <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
@@ -1529,7 +1529,7 @@
       <c r="C35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
@@ -1537,7 +1537,7 @@
       <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
@@ -1547,7 +1547,7 @@
       <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
@@ -1559,7 +1559,7 @@
       <c r="C38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       <c r="C39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -1581,7 +1581,7 @@
       <c r="C40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -1591,7 +1591,7 @@
       <c r="C41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -1599,7 +1599,7 @@
       <c r="C42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -1609,7 +1609,7 @@
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -1617,7 +1617,7 @@
       <c r="C44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
@@ -1627,7 +1627,7 @@
       <c r="C45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
@@ -1637,7 +1637,7 @@
       <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
@@ -1647,7 +1647,7 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
@@ -1659,7 +1659,7 @@
       <c r="C48" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       <c r="C49" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="66" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
@@ -1681,7 +1681,7 @@
       <c r="C50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
@@ -1691,7 +1691,7 @@
       <c r="C51" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
@@ -1699,7 +1699,7 @@
       <c r="C52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
@@ -1709,7 +1709,7 @@
       <c r="C53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
@@ -1717,7 +1717,7 @@
       <c r="C54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
@@ -1727,10 +1727,18 @@
       <c r="C55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="D38:D47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="D48:D55"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="A2:A10"/>
@@ -1747,14 +1755,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="D38:D47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="D48:D55"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1766,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1788,7 +1788,7 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="66" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -1810,7 +1810,7 @@
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
@@ -1820,7 +1820,7 @@
       <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
@@ -1830,7 +1830,7 @@
       <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -1838,7 +1838,7 @@
       <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
@@ -1848,7 +1848,7 @@
       <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -1860,7 +1860,7 @@
       <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -1882,7 +1882,7 @@
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
@@ -1892,7 +1892,7 @@
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
@@ -1902,7 +1902,7 @@
       <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
@@ -1910,7 +1910,7 @@
       <c r="C13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
@@ -1920,7 +1920,7 @@
       <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
@@ -1932,7 +1932,7 @@
       <c r="C15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="66" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
@@ -1954,7 +1954,7 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
@@ -1964,7 +1964,7 @@
       <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
@@ -1974,7 +1974,7 @@
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
@@ -1982,7 +1982,7 @@
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
@@ -1992,7 +1992,7 @@
       <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
@@ -2004,7 +2004,7 @@
       <c r="C22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
@@ -2026,7 +2026,7 @@
       <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
@@ -2036,7 +2036,7 @@
       <c r="C25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
@@ -2048,7 +2048,7 @@
       <c r="C26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
@@ -2070,7 +2070,7 @@
       <c r="C28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
@@ -2080,7 +2080,7 @@
       <c r="C29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2129,7 +2129,7 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="C2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -2151,7 +2151,7 @@
       <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
@@ -2161,7 +2161,7 @@
       <c r="C4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
@@ -2171,7 +2171,7 @@
       <c r="C5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -2181,7 +2181,7 @@
       <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
@@ -2193,7 +2193,7 @@
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
@@ -2215,7 +2215,7 @@
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -2225,7 +2225,7 @@
       <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
@@ -2235,7 +2235,7 @@
       <c r="C11" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
@@ -2245,7 +2245,7 @@
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2263,7 +2263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -2285,7 +2285,7 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -2307,7 +2307,7 @@
       <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
@@ -2317,7 +2317,7 @@
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
@@ -2327,7 +2327,7 @@
       <c r="C5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -2337,7 +2337,7 @@
       <c r="C6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
@@ -2347,7 +2347,7 @@
       <c r="C7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -2359,7 +2359,7 @@
       <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -2381,7 +2381,7 @@
       <c r="C10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
@@ -2391,7 +2391,7 @@
       <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
@@ -2401,7 +2401,7 @@
       <c r="C12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
@@ -2411,7 +2411,7 @@
       <c r="C13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
@@ -2421,7 +2421,7 @@
       <c r="C14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2461,7 +2461,7 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -2483,7 +2483,7 @@
       <c r="C3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
@@ -2491,7 +2491,7 @@
       <c r="C4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
@@ -2499,7 +2499,7 @@
       <c r="C5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2530,19 +2530,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2551,70 +2551,70 @@
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2623,42 +2623,42 @@
       <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
